--- a/DataFiles/StudentResidencyData.xlsx
+++ b/DataFiles/StudentResidencyData.xlsx
@@ -203,7 +203,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +215,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -277,6 +271,9 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -284,19 +281,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,10 +301,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -629,16 +623,16 @@
   <cols>
     <col min="1" max="1" style="14" width="15.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="22.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -648,34 +642,34 @@
       <c r="B1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -686,34 +680,34 @@
       <c r="B2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -724,34 +718,34 @@
       <c r="B3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -762,34 +756,34 @@
       <c r="B4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -800,34 +794,34 @@
       <c r="B5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -838,34 +832,34 @@
       <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -876,34 +870,34 @@
       <c r="B7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -914,34 +908,34 @@
       <c r="B8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -952,34 +946,34 @@
       <c r="B9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -999,151 +993,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="27.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="12.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1163,47 +1157,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
     </row>

--- a/DataFiles/StudentResidencyData.xlsx
+++ b/DataFiles/StudentResidencyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="StudentPreferenceDetails"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
   <si>
     <t>TIME SLOT</t>
   </si>
@@ -102,51 +102,51 @@
     <t>P0</t>
   </si>
   <si>
+    <t>Rancho Los Amigos NRC</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>SCAN Health Plan</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St.Johns-PhysPartners </t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Torrance Memorial</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>Verdugo Hills Hospital</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>West Hills Hospital</t>
+  </si>
+  <si>
+    <t>W0</t>
+  </si>
+  <si>
+    <t>USC ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
-    <t>Rancho Los Amigos NRC</t>
-  </si>
-  <si>
-    <t>R0</t>
-  </si>
-  <si>
-    <t>SCAN Health Plan</t>
-  </si>
-  <si>
-    <t>S0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St.Johns-PhysPartners </t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>Torrance Memorial</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>Verdugo Hills Hospital</t>
-  </si>
-  <si>
-    <t>V0</t>
-  </si>
-  <si>
-    <t>West Hills Hospital</t>
-  </si>
-  <si>
-    <t>W0</t>
-  </si>
-  <si>
-    <t>USC ID</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Raashi Subramanya</t>
+  </si>
+  <si>
+    <t>Nikhil Bajpai</t>
+  </si>
+  <si>
+    <t>Eryn Burnette</t>
+  </si>
+  <si>
+    <t>Russelle Chang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bryce Dechert</t>
   </si>
 </sst>
 </file>
@@ -220,12 +232,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -262,11 +274,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -278,20 +316,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,11 +345,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,35 +665,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="27.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>43</v>
@@ -674,307 +724,459 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>10001</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>29</v>
+      <c r="I2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>10002</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="12">
+      <c r="A4" s="14">
         <v>10003</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>33</v>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>10004</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>10005</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>35</v>
+      <c r="L6" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>10006</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12">
+      <c r="A8" s="14">
         <v>10007</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="12">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="14">
         <v>10008</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="G9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>39</v>
+      <c r="L9" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="14">
+        <v>10009</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="14">
+        <v>10010</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="14">
+        <v>10011</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="14">
+        <v>10012</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -987,14 +1189,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1006,139 +1208,131 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1347,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1161,7 +1355,7 @@
     <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>

--- a/DataFiles/StudentResidencyData.xlsx
+++ b/DataFiles/StudentResidencyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="StudentPreferenceDetails"/>
@@ -16,14 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
+  <si>
+    <t>CODE</t>
+  </si>
   <si>
     <t>TIME SLOT</t>
   </si>
   <si>
-    <t>CODE</t>
-  </si>
-  <si>
     <t>6:00 - 6:07pm</t>
   </si>
   <si>
@@ -39,7 +39,10 @@
     <t>ORGANIZATION NAME</t>
   </si>
   <si>
-    <t>ORG_CODE</t>
+    <t>ORG CODE</t>
+  </si>
+  <si>
+    <t>Time Slots Allocated</t>
   </si>
   <si>
     <t>Cedars-Sinai - Neurosciences</t>
@@ -215,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,12 +230,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -304,61 +301,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -667,516 +649,516 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="27.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C1" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="14">
+      <c r="A2" s="3">
         <v>10001</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>28</v>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="14">
+      <c r="A3" s="3">
         <v>10002</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>22</v>
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="14">
+      <c r="A4" s="3">
         <v>10003</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>32</v>
+      <c r="B4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="14">
+      <c r="A5" s="3">
         <v>10004</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>24</v>
+      <c r="B5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="14">
+      <c r="A6" s="3">
         <v>10005</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>34</v>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="14">
+      <c r="A7" s="3">
         <v>10006</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>20</v>
+      <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="14">
+      <c r="A8" s="3">
         <v>10007</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>26</v>
+      <c r="B8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="14">
+      <c r="A9" s="3">
         <v>10008</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>38</v>
+      <c r="B9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="14">
+      <c r="A10" s="3">
         <v>10009</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>22</v>
+      <c r="B10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="14">
+      <c r="A11" s="3">
         <v>10010</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>8</v>
+      <c r="B11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="14">
+      <c r="A12" s="3">
         <v>10011</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>14</v>
+      <c r="B12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
-      <c r="A13" s="14">
+      <c r="A13" s="3">
         <v>10012</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>26</v>
+      <c r="B13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1189,14 +1171,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="38.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1206,134 +1189,153 @@
       <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1347,15 +1349,15 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,36 +1365,36 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/StudentResidencyData.xlsx
+++ b/DataFiles/StudentResidencyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="66">
   <si>
     <t>CODE</t>
   </si>
@@ -42,25 +42,16 @@
     <t>ORG CODE</t>
   </si>
   <si>
-    <t>Time Slots 1</t>
-  </si>
-  <si>
-    <t>Time Slots 2</t>
-  </si>
-  <si>
-    <t>Time Slots 3</t>
-  </si>
-  <si>
-    <t>Time Slots 4</t>
+    <t>Time Slots</t>
+  </si>
+  <si>
+    <t>Students Per Slot</t>
   </si>
   <si>
     <t>Cedars-Sinai - Neurosciences</t>
   </si>
   <si>
     <t>C0</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>CHLA - Anesthesia&amp;CCM</t>
@@ -681,40 +672,40 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -722,37 +713,37 @@
         <v>10001</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -760,37 +751,37 @@
         <v>10002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -798,37 +789,37 @@
         <v>10003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -836,37 +827,37 @@
         <v>10004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -874,37 +865,37 @@
         <v>10005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -912,37 +903,37 @@
         <v>10006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -950,37 +941,37 @@
         <v>10007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -988,37 +979,37 @@
         <v>10008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -1026,37 +1017,37 @@
         <v>10009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -1064,37 +1055,37 @@
         <v>10010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -1102,37 +1093,37 @@
         <v>10011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
@@ -1140,37 +1131,37 @@
         <v>10012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1192,9 +1183,9 @@
     <col min="1" max="1" style="6" width="38.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="25.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1210,19 +1201,15 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
@@ -1230,59 +1217,47 @@
       <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -1290,19 +1265,15 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -1310,19 +1281,15 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -1330,19 +1297,15 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -1350,39 +1313,31 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
-        <v>6</v>
-      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -1390,19 +1345,15 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -1410,19 +1361,15 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -1430,19 +1377,15 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -1450,19 +1393,15 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -1470,39 +1409,31 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
@@ -1510,19 +1441,15 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -1530,12 +1457,8 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataFiles/StudentResidencyData.xlsx
+++ b/DataFiles/StudentResidencyData.xlsx
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8"/>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="8"/>
